--- a/AllIn apis.xlsx
+++ b/AllIn apis.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="开发计划" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>权限管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +124,38 @@
   </si>
   <si>
     <t>/auth/role/permissions/{resourceIds}.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后的Dashboard数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续添加缓存功能，避免每次刷新页面，都需要从数据库读取菜单配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +178,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,13 +204,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,10 +611,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>42955</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="3"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="3"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="3"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="3"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="3"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="3"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="3"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="3"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="3"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="3"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="3"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="3"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="3"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="3"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,16 +1496,16 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -662,19 +1601,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -689,4 +1615,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>